--- a/biology/Botanique/Michael_D._Guiry/Michael_D._Guiry.xlsx
+++ b/biology/Botanique/Michael_D._Guiry/Michael_D._Guiry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael D. Guiry (Michael Dominic Richard Guiry, né en 1949) est un botaniste et phycologue irlandais.
-Il est l'auteur de la base de données phycologiques AlgaeBase[1].
+Il est l'auteur de la base de données phycologiques AlgaeBase.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Guiry M.D. &amp; Womersley H.B.S., 1993. Capreolia implexa gen. et sp. nov. in Australia and New Zealand (Gelidiales, Rhodophyta); an intertidal red alga with an unusual life history. Phycologia 32: 266–277.
 (en) Hommersand M.H., Guiry M.D., Fredericq S. &amp; Leister G.L., 1993. New perspectives in the taxonomy of the Gigartinaceae (Gigartinales, Rhodophyta). Proceedings of the International Seaweed Symposium 14: 105–120, 41 figs.
